--- a/TOR330 Data/100x100trail/TOR330_2023.xlsx
+++ b/TOR330 Data/100x100trail/TOR330_2023.xlsx
@@ -3778,7 +3778,7 @@
     <t>Ono Masahiro</t>
   </si>
   <si>
-    <t>Kurtyak  Valery</t>
+    <t>Kurtyak Valery</t>
   </si>
   <si>
     <t>De Los Angeles Segui Juan Jose</t>
@@ -3832,7 +3832,7 @@
     <t>Florentin Gooris</t>
   </si>
   <si>
-    <t>Meignan  Pierre</t>
+    <t>Meignan Pierre</t>
   </si>
   <si>
     <t>Smith Orran</t>
@@ -3889,7 +3889,7 @@
     <t>Rick Janssen</t>
   </si>
   <si>
-    <t>Atzeni  Giacomo</t>
+    <t>Atzeni Giacomo</t>
   </si>
   <si>
     <t>Rossetto Mirko</t>
@@ -3937,7 +3937,7 @@
     <t>Mattern Travis</t>
   </si>
   <si>
-    <t>Emo  Frederic</t>
+    <t>Emo Frederic</t>
   </si>
   <si>
     <t>Delafontaine Thomas</t>
@@ -4108,10 +4108,10 @@
     <t>Carreres Tortosa Ana Maria</t>
   </si>
   <si>
-    <t>Torro Carceles  Ramon</t>
-  </si>
-  <si>
-    <t>Fages-Tafanelli Eric</t>
+    <t>Torro Carceles Ramon</t>
+  </si>
+  <si>
+    <t>Fages Tafanelli Eric</t>
   </si>
   <si>
     <t>Dunn Andy</t>
@@ -4147,13 +4147,13 @@
     <t>Tallia Chiara</t>
   </si>
   <si>
-    <t>Chauvin Fontaine  Christophe</t>
+    <t>Chauvin Fontaine Christophe</t>
   </si>
   <si>
     <t>Comero Roberto</t>
   </si>
   <si>
-    <t>Masoero  Luca</t>
+    <t>Masoero Luca</t>
   </si>
   <si>
     <t>Vigna Gian Luca</t>
@@ -4219,7 +4219,7 @@
     <t>Tricas Lazzaro Jorge</t>
   </si>
   <si>
-    <t>Sorarrain  Eneko</t>
+    <t>Sorarrain Eneko</t>
   </si>
   <si>
     <t>Hollrigl Gregor</t>
@@ -4300,7 +4300,7 @@
     <t>Carcenac Gautier</t>
   </si>
   <si>
-    <t>Travers Jean-Michel</t>
+    <t>Travers Jean Michel</t>
   </si>
   <si>
     <t>Hoenner Dominique</t>
@@ -4321,7 +4321,7 @@
     <t>Quillet Cedric</t>
   </si>
   <si>
-    <t>Flohr Jean-Marc</t>
+    <t>Flohr Jean Marc</t>
   </si>
   <si>
     <t>Ponti Massimiliano</t>
@@ -4459,7 +4459,7 @@
     <t>Zhong Liu</t>
   </si>
   <si>
-    <t>Tainturier Pierre-Henry</t>
+    <t>Tainturier Pierre Henry</t>
   </si>
   <si>
     <t>Simon Pascal</t>
@@ -4492,7 +4492,7 @@
     <t>Conraux Emmanuel</t>
   </si>
   <si>
-    <t>Forster  Michael</t>
+    <t>Forster Michael</t>
   </si>
   <si>
     <t>Chabod Benoit</t>
@@ -4555,7 +4555,7 @@
     <t>Scalfi Fabio</t>
   </si>
   <si>
-    <t>Vecco  Cristina</t>
+    <t>Vecco Cristina</t>
   </si>
   <si>
     <t>Trublin Sebastien</t>
@@ -4579,7 +4579,7 @@
     <t>Driver Percy</t>
   </si>
   <si>
-    <t>Di Costanzo  Guido</t>
+    <t>Di Costanzo Guido</t>
   </si>
   <si>
     <t>Gandini Maurizio</t>
@@ -4594,7 +4594,7 @@
     <t>Fari Alessandro</t>
   </si>
   <si>
-    <t>Saieva  Maximiliano</t>
+    <t>Saieva Maximiliano</t>
   </si>
   <si>
     <t>Byiers Bruce</t>
@@ -4663,7 +4663,7 @@
     <t>Lo Conte Antonio</t>
   </si>
   <si>
-    <t>Okeeffe  Mairead</t>
+    <t>Okeeffe Mairead</t>
   </si>
   <si>
     <t>Williams John</t>
@@ -4681,7 +4681,7 @@
     <t>Straub Simon</t>
   </si>
   <si>
-    <t>Nicaise Jean-Baptiste</t>
+    <t>Nicaise Jean Baptiste</t>
   </si>
   <si>
     <t>Eduardov Aleksandr</t>
@@ -4744,10 +4744,10 @@
     <t>Peterson Daniel</t>
   </si>
   <si>
-    <t>Ho Shang-Wei</t>
-  </si>
-  <si>
-    <t>Huang Chi-Hsien</t>
+    <t>Ho Shang Wei</t>
+  </si>
+  <si>
+    <t>Huang Chi Hsien</t>
   </si>
   <si>
     <t>Chang Fengyuan</t>
@@ -4852,7 +4852,7 @@
     <t>Zanella Michele</t>
   </si>
   <si>
-    <t>Boulouk Bachi  Patrice</t>
+    <t>Boulouk Bachi Patrice</t>
   </si>
   <si>
     <t>Cloarec Damien</t>
@@ -4903,7 +4903,7 @@
     <t>Come Lucio</t>
   </si>
   <si>
-    <t>Paccagnella  Francesco</t>
+    <t>Paccagnella Francesco</t>
   </si>
   <si>
     <t>Vu Van Thinh</t>
@@ -4942,7 +4942,7 @@
     <t>El Idrissi Mustafa</t>
   </si>
   <si>
-    <t>Jaeglin  Emmanuelle</t>
+    <t>Jaeglin Emmanuelle</t>
   </si>
   <si>
     <t>Girolami Paolo</t>
@@ -5017,7 +5017,7 @@
     <t>Dell Anese Federico</t>
   </si>
   <si>
-    <t>Moroso Jean-Francois</t>
+    <t>Moroso Jean Francois</t>
   </si>
   <si>
     <t>Madrid Miguel</t>
@@ -5146,7 +5146,7 @@
     <t>Morineau Olivier</t>
   </si>
   <si>
-    <t>Gondolff  Jerome</t>
+    <t>Gondolff Jerome</t>
   </si>
   <si>
     <t>Schott Gerard</t>
@@ -5191,7 +5191,7 @@
     <t>Angelo Teresa Gaia</t>
   </si>
   <si>
-    <t>Schumacher  Gabi</t>
+    <t>Schumacher Gabi</t>
   </si>
   <si>
     <t>Fioroni Gina</t>
@@ -5200,7 +5200,7 @@
     <t>Zhang Jingang</t>
   </si>
   <si>
-    <t>Veyre  Aurelia</t>
+    <t>Veyre Aurelia</t>
   </si>
   <si>
     <t>Chasserant Philippe</t>
@@ -5257,7 +5257,7 @@
     <t>Cai Yu</t>
   </si>
   <si>
-    <t>Ren  Maozhuang</t>
+    <t>Ren Maozhuang</t>
   </si>
   <si>
     <t>Lara Garcia Sergio</t>
@@ -5368,7 +5368,7 @@
     <t>Manitto Andrea Vittorio</t>
   </si>
   <si>
-    <t>Benetti  Paolo</t>
+    <t>Benetti Paolo</t>
   </si>
   <si>
     <t>Piccioli Stefano</t>
@@ -5389,7 +5389,7 @@
     <t>Ramoin Gregory</t>
   </si>
   <si>
-    <t>Paoletti  Giovanni</t>
+    <t>Paoletti Giovanni</t>
   </si>
   <si>
     <t>Tanaglia Fausto</t>
@@ -5458,7 +5458,7 @@
     <t>Beier Ricardo</t>
   </si>
   <si>
-    <t>Labisse  Sebastien</t>
+    <t>Labisse Sebastien</t>
   </si>
   <si>
     <t>Buttafava Marco</t>
@@ -5551,7 +5551,7 @@
     <t>Delafond Sandra</t>
   </si>
   <si>
-    <t>Compan Jean-Philippe</t>
+    <t>Compan Jean Philippe</t>
   </si>
   <si>
     <t>Wiewauters Dries</t>
@@ -5596,7 +5596,7 @@
     <t>Rigoux Pascal</t>
   </si>
   <si>
-    <t>Hornyak  Valeric</t>
+    <t>Hornyak Valeric</t>
   </si>
   <si>
     <t>Curatolo Leonardo</t>
@@ -5662,7 +5662,7 @@
     <t>Vukman Marin</t>
   </si>
   <si>
-    <t>Negro  Mattia</t>
+    <t>Negro Mattia</t>
   </si>
   <si>
     <t>Ferrio Matteo</t>
@@ -5716,7 +5716,7 @@
     <t>Massalin Andrea</t>
   </si>
   <si>
-    <t>Cailleau Marie-Aline</t>
+    <t>Cailleau Marie Aline</t>
   </si>
   <si>
     <t>Lin Haidan</t>
@@ -5788,7 +5788,7 @@
     <t>Sangiorgi Gustavo</t>
   </si>
   <si>
-    <t>Favre Jean-Claude</t>
+    <t>Favre Jean Claude</t>
   </si>
   <si>
     <t>Brun Fabien</t>
@@ -5896,7 +5896,7 @@
     <t>Nakamachi Akihito</t>
   </si>
   <si>
-    <t>Thiollet  Francois</t>
+    <t>Thiollet Francois</t>
   </si>
   <si>
     <t>Meng Qingxin</t>
@@ -5950,7 +5950,7 @@
     <t>Sorensen Christian</t>
   </si>
   <si>
-    <t>Melon Jean-Pierre</t>
+    <t>Melon Jean Pierre</t>
   </si>
   <si>
     <t>Poole Jason</t>
@@ -5965,7 +5965,7 @@
     <t>Fiore Paolo</t>
   </si>
   <si>
-    <t>Pelloux  Christian</t>
+    <t>Pelloux Christian</t>
   </si>
   <si>
     <t>Duhaime Sophie</t>
@@ -5986,13 +5986,13 @@
     <t>Rigodanza Patrizio</t>
   </si>
   <si>
-    <t>Ecoiffier  Sabrina</t>
+    <t>Ecoiffier Sabrina</t>
   </si>
   <si>
     <t>De La Granja Villoslada Gonzalo Martin</t>
   </si>
   <si>
-    <t>Chen Tsai-Tsung</t>
+    <t>Chen Tsai Tsung</t>
   </si>
   <si>
     <t>Legresley Daniel</t>
@@ -6013,7 +6013,7 @@
     <t>Vuillermin Stefano</t>
   </si>
   <si>
-    <t>Zanini  Giovanni</t>
+    <t>Zanini Giovanni</t>
   </si>
   <si>
     <t>Umezawa Miyoko</t>
@@ -6055,7 +6055,7 @@
     <t>Cheang William</t>
   </si>
   <si>
-    <t>Tai Hsiu-Fang</t>
+    <t>Tai Hsiu Fang</t>
   </si>
   <si>
     <t>Fabrice Barjolin</t>
@@ -6070,7 +6070,7 @@
     <t>Billi Francesca</t>
   </si>
   <si>
-    <t>Oloeriu  Sergiu</t>
+    <t>Oloeriu Sergiu</t>
   </si>
   <si>
     <t>Fazio Rosalba</t>
@@ -6124,7 +6124,7 @@
     <t>Caldan Roberto</t>
   </si>
   <si>
-    <t>Phalee  Nutcha</t>
+    <t>Phalee Nutcha</t>
   </si>
   <si>
     <t>Dumont Philippe</t>
@@ -6217,7 +6217,7 @@
     <t>Chiodi Umberto</t>
   </si>
   <si>
-    <t>Lloyd-Hughes Torin</t>
+    <t>Lloyd Hughes Torin</t>
   </si>
   <si>
     <t>Doring Sandro</t>
@@ -6262,7 +6262,7 @@
     <t>Stahala Martin</t>
   </si>
   <si>
-    <t>Celik Seda Nur</t>
+    <t>CeliK Seda Nur</t>
   </si>
   <si>
     <t>Lefrancois Yann</t>
@@ -6334,7 +6334,7 @@
     <t>Melia Brian</t>
   </si>
   <si>
-    <t>Garcia Delgado  Israel</t>
+    <t>Garcia Delgado Israel</t>
   </si>
   <si>
     <t>Leventhal Shiri</t>
@@ -6403,7 +6403,7 @@
     <t>Ampe Drie</t>
   </si>
   <si>
-    <t>Konttinen Juha-Pekka</t>
+    <t>Konttinen Juha Pekka</t>
   </si>
   <si>
     <t>Hilmarsdottir Hafdis Gurun</t>
@@ -6466,7 +6466,7 @@
     <t>Drosos Evangelos</t>
   </si>
   <si>
-    <t>Remezkov  Dmitrii</t>
+    <t>Remezkov Dmitrii</t>
   </si>
   <si>
     <t>Bryant Patty</t>
@@ -6535,10 +6535,10 @@
     <t>Huille Alexandre</t>
   </si>
   <si>
-    <t>Degraeve  Jeremie</t>
-  </si>
-  <si>
-    <t>Renard  Alexandrine</t>
+    <t>Degraeve Jeremie</t>
+  </si>
+  <si>
+    <t>Renard Alexandrine</t>
   </si>
   <si>
     <t>Cucchi Sergio</t>
@@ -6550,7 +6550,7 @@
     <t>Menni Fabio</t>
   </si>
   <si>
-    <t>Bessone  Andrea Roberto</t>
+    <t>Bessone Andrea Roberto</t>
   </si>
   <si>
     <t>Van Der Heijden Peter</t>
@@ -6640,10 +6640,10 @@
     <t>Piampiano Moreno</t>
   </si>
   <si>
-    <t>Russo  Stefano</t>
-  </si>
-  <si>
-    <t>Giordanengo  Lucia</t>
+    <t>Russo Stefano</t>
+  </si>
+  <si>
+    <t>Giordanengo Lucia</t>
   </si>
   <si>
     <t>Rubenstein Gabriel</t>
@@ -6673,7 +6673,7 @@
     <t>Noda Jose</t>
   </si>
   <si>
-    <t>Juglair  Julien</t>
+    <t>Juglair Julien</t>
   </si>
   <si>
     <t>Espelleta Casinos Gustavo</t>
@@ -6724,7 +6724,7 @@
     <t>Jensen Torben C G</t>
   </si>
   <si>
-    <t>De Carvalho  Paul</t>
+    <t>De Carvalho Paul</t>
   </si>
   <si>
     <t>Peroni Marialuisa</t>
@@ -6823,7 +6823,7 @@
     <t>Quintana Macho Eloy</t>
   </si>
   <si>
-    <t>Beres  Dylan</t>
+    <t>Beres Dylan</t>
   </si>
   <si>
     <t>Belli Manuel</t>
@@ -6871,7 +6871,7 @@
     <t>Gerhard Hiebaum</t>
   </si>
   <si>
-    <t>Sanchez-Cervi Jose M</t>
+    <t>Sanchez Cervi Jose M</t>
   </si>
   <si>
     <t>Sala Fabio</t>
@@ -6922,13 +6922,13 @@
     <t>Ledda Lorenzo</t>
   </si>
   <si>
-    <t>Brenner  Mylene</t>
+    <t>Brenner Mylene</t>
   </si>
   <si>
     <t>Orsolini Maurizio Alex</t>
   </si>
   <si>
-    <t>Marziano  Gianfranco</t>
+    <t>Marziano Gianfranco</t>
   </si>
   <si>
     <t>Ueno Takumi</t>
@@ -6970,7 +6970,7 @@
     <t>Verdaguer Font Joan Manel</t>
   </si>
   <si>
-    <t>Vernet  Thomas</t>
+    <t>Vernet Thomas</t>
   </si>
   <si>
     <t>Kolaric Ivana</t>
@@ -6985,7 +6985,7 @@
     <t>Peteri Saara</t>
   </si>
   <si>
-    <t>Ferraris  Gianpaolo Maria</t>
+    <t>Ferraris Gianpaolo Maria</t>
   </si>
   <si>
     <t>Momic Dusko</t>
@@ -6994,7 +6994,7 @@
     <t>Deac Cristian</t>
   </si>
   <si>
-    <t>Tabutin  Jonathan</t>
+    <t>Tabutin Jonathan</t>
   </si>
   <si>
     <t>Germain Cyrille</t>
@@ -7219,7 +7219,7 @@
     <t>Wakiya Takashi</t>
   </si>
   <si>
-    <t>Portemer  Sebastien</t>
+    <t>Portemer Sebastien</t>
   </si>
   <si>
     <t>Garcia Damian Emiliano Francisco</t>
@@ -7246,10 +7246,10 @@
     <t>Siawhua Lim</t>
   </si>
   <si>
-    <t>Bouillon Jean-Pascal</t>
-  </si>
-  <si>
-    <t>Lorentzen  ystein</t>
+    <t>Bouillon Jean Pascal</t>
+  </si>
+  <si>
+    <t>Lorentzen ystein</t>
   </si>
   <si>
     <t>Soto Aleman Ricardo</t>
@@ -7264,7 +7264,7 @@
     <t>Jimenez Roqhuett Marcelo</t>
   </si>
   <si>
-    <t>Campion  Mark</t>
+    <t>Campion Mark</t>
   </si>
   <si>
     <t>Torre Silvere</t>
